--- a/tests/ExcelToTestDatanator.xlsx
+++ b/tests/ExcelToTestDatanator.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reactions" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>A Reacion Name #1 (ATP + UMP &lt;==&gt; UDP + ADP)</t>
   </si>
@@ -35,13 +35,13 @@
     <t>GMP + ATP &lt;==&gt; ADP + GDP</t>
   </si>
   <si>
-    <t>[c]: fructosylLYS + ATP ==&gt; fructosyl6PLYS + ADP + H</t>
-  </si>
-  <si>
-    <t>[c]: ATP + DG &lt;==&gt; (2) H + DGMP + ADP</t>
-  </si>
-  <si>
-    <t>[c]: AHCYS + H2O ==&gt; HCYS + ADN</t>
+    <t>[c]: dCMP64dTMP + (2) H2O ==&gt; dC64dT + (2) PI</t>
+  </si>
+  <si>
+    <t>[c]: FMN + H + NADH ==&gt; FMNH2 + NAD</t>
+  </si>
+  <si>
+    <t>[c]: H2O + m7GMP ==&gt; m7G + PI</t>
   </si>
   <si>
     <t>ATP</t>
@@ -126,6 +126,60 @@
   </si>
   <si>
     <t>NC1=C2N=CN(C3OC(CO)C(O)C3O)C2=NC=N1</t>
+  </si>
+  <si>
+    <t>dCMP64dTMP</t>
+  </si>
+  <si>
+    <t>CC1=CN(C2CC(O)C(COP([O-])([O-])=O)O2)C(=O)NC1C1=[N+](C2CC(O)C(COP([O-])([O-])=O)O2)C(=O)N=C(N)[C-]1O</t>
+  </si>
+  <si>
+    <t>dC64dT</t>
+  </si>
+  <si>
+    <t>CC1=CN(C2CC(O)C(CO)O2)C(=O)NC1C1=[N+](C2CC(O)C(CO)O2)C(=O)N=C(N)[C-]1O</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>OP([O-])([O-])=O</t>
+  </si>
+  <si>
+    <t>FMN</t>
+  </si>
+  <si>
+    <t>CC1=C(C)C=C2N(FMN(O)C(O)C(O)COP([O-])([O-])=O)C3=NC(=O)NC(=O)C3=NC2=C1</t>
+  </si>
+  <si>
+    <t>NADH</t>
+  </si>
+  <si>
+    <t>NC(=O)C1=CN(C=CC1)C1OC(COP([O-])(=O)OP([O-])(=O)OCC2OC(C(O)C2O)N2C=NC3=C(N)N=CN=C23)C(O)C1O</t>
+  </si>
+  <si>
+    <t>FMNH2</t>
+  </si>
+  <si>
+    <t>CC1=CC2=C(C=C1C)N(CC(O)C(O)C(O)COP([O-])([O-])=O)C1=C(N2)C(=O)NC(=O)N1</t>
+  </si>
+  <si>
+    <t>NAD</t>
+  </si>
+  <si>
+    <t>NC(=O)C1=CC=C[N+](=C1)C1OC(COP([O-])(=O)OP([O-])(=O)OCC2OC(C(O)C2O)N2C=NC3=C(N)N=CN=C23)C(O)C1O</t>
+  </si>
+  <si>
+    <t>m7GMP</t>
+  </si>
+  <si>
+    <t>C[N+]1=CN(C2OC(COP([O-])([O-])=O)C(O)C2O)C2=C1C(=O)NC(N)=N2</t>
+  </si>
+  <si>
+    <t>m7G</t>
+  </si>
+  <si>
+    <t>C[N+]1=CN(C2OC(CO)C(O)C2O)C2=NC(N)=NC(O)=C12</t>
   </si>
 </sst>
 </file>
@@ -135,7 +189,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -164,6 +218,18 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -228,11 +294,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -240,8 +306,8 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -261,10 +327,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -279,25 +345,24 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+    <row r="3" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="50.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="85.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -305,7 +370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="50.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="57.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -331,8 +396,8 @@
   </sheetPr>
   <dimension ref="A1:B803"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -389,78 +454,141 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="108.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="95.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="95.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="122.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="95.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="95.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="122.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="24" customFormat="false" ht="108.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="25" customFormat="false" ht="108.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="108.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
